--- a/Libraries/Vehicle/Linkage/DW_PushUA/sm_car_data_Linkage_DW_PushUA_noSteer.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_PushUA/sm_car_data_Linkage_DW_PushUA_noSteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\DW_PushUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D211F8-4CA2-4913-AD85-88395C0B95F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB5BC2-00F7-4759-8CAA-2E6FCAD33442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="43290" yWindow="7170" windowWidth="14325" windowHeight="7485" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWPUAnoSteer_FSAE_Achilles_r" sheetId="10" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -342,6 +342,7 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -695,24 +696,24 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28:H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" customWidth="1"/>
-    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="5" width="11.140625" customWidth="1"/>
     <col min="6" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" customWidth="1"/>
-    <col min="10" max="10" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -732,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -747,7 +748,7 @@
       </c>
       <c r="J2" s="21"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>7</v>
       </c>
@@ -765,7 +766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -785,7 +786,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="25"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -820,7 +821,7 @@
         <v>0.10507</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>12</v>
@@ -853,7 +854,7 @@
         <v>0.12457</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9" t="s">
         <v>13</v>
@@ -886,7 +887,7 @@
         <v>0.13123000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>11</v>
@@ -906,7 +907,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="25"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -941,7 +942,7 @@
         <v>0.22907</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="9" t="s">
         <v>12</v>
@@ -974,7 +975,7 @@
         <v>0.25557000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>13</v>
@@ -1006,7 +1007,7 @@
         <v>0.32773000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="9" t="s">
         <v>11</v>
@@ -1022,7 +1023,7 @@
         <v>5.2778799999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>0.23322999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>18</v>
@@ -1088,7 +1089,7 @@
         <v>0.23322999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
         <v>11</v>
@@ -1104,7 +1105,7 @@
         <v>1.0491900000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="9" t="s">
         <v>19</v>
@@ -1120,7 +1121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>21</v>
@@ -1136,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>22</v>
@@ -1155,7 +1156,7 @@
       </c>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>24</v>
@@ -1174,7 +1175,7 @@
       </c>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>26</v>
@@ -1191,7 +1192,7 @@
       </c>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
@@ -1217,7 +1218,7 @@
       </c>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>13</v>
@@ -1241,7 +1242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="9" t="s">
         <v>11</v>
@@ -1260,7 +1261,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>29</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>0.15606999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="s">
         <v>32</v>
@@ -1329,7 +1330,7 @@
         <v>0.16078999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>33</v>
@@ -1345,7 +1346,7 @@
         <v>3.6529410000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="9" t="s">
         <v>34</v>
@@ -1361,7 +1362,7 @@
         <v>4.3157700000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>35</v>
       </c>
@@ -1375,14 +1376,14 @@
       <c r="E28" s="10"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
-      <c r="H28" s="29">
-        <v>0.03</v>
+      <c r="H28" s="30">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="J28" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="17" t="s">
         <v>38</v>
@@ -1394,11 +1395,11 @@
       <c r="E29" s="10"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
-      <c r="H29" s="29">
-        <v>-0.03</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H29" s="30">
+        <v>-4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>39</v>
       </c>
@@ -1414,7 +1415,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
@@ -1430,7 +1431,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>45</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>0.30620000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
         <v>47</v>
@@ -1472,7 +1473,7 @@
         <v>0.10389</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="9" t="s">
         <v>11</v>
@@ -1488,7 +1489,7 @@
         <v>5.8304799999999997E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>48</v>
       </c>
@@ -1510,7 +1511,7 @@
         <v>0.10306999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="9" t="s">
         <v>50</v>
@@ -1530,7 +1531,7 @@
         <v>0.12791</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
         <v>11</v>

--- a/Libraries/Vehicle/Linkage/DW_PushUA/sm_car_data_Linkage_DW_PushUA_noSteer.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_PushUA/sm_car_data_Linkage_DW_PushUA_noSteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Linkage\DW_PushUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_PushUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABB5BC2-00F7-4759-8CAA-2E6FCAD33442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF63A54-A56D-45C8-B401-F83FBCC9BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43290" yWindow="7170" windowWidth="14325" windowHeight="7485" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWPUAnoSteer_FSAE_Achilles_r" sheetId="10" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -312,12 +312,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -333,28 +331,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -395,9 +385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -435,7 +425,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -541,7 +531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -683,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -696,13 +686,13 @@
   </sheetPr>
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="19" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="17" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.140625" customWidth="1"/>
     <col min="4" max="5" width="11.140625" customWidth="1"/>
@@ -746,7 +736,6 @@
       <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -754,15 +743,12 @@
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -779,12 +765,11 @@
       <c r="H4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="L4" s="25" t="s">
+      <c r="L4" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -797,26 +782,25 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>0.23712</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="10">
         <v>0.22450000000000001</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="10">
         <v>0.12457</v>
       </c>
-      <c r="J5" s="13"/>
-      <c r="L5" s="26">
+      <c r="J5" s="10"/>
+      <c r="L5" s="23">
         <f>-F6</f>
         <v>2.7E-2</v>
       </c>
-      <c r="M5" s="26">
+      <c r="M5" s="23">
         <f>G6</f>
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="N5" s="26">
+      <c r="N5" s="23">
         <f>H6</f>
         <v>0.10507</v>
       </c>
@@ -830,26 +814,24 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>-2.7E-2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="10">
         <v>9.9750000000000005E-2</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <v>0.10507</v>
       </c>
-      <c r="J6" s="21"/>
-      <c r="L6" s="26">
+      <c r="L6" s="23">
         <f>-F5</f>
         <v>-0.23712</v>
       </c>
-      <c r="M6" s="26">
+      <c r="M6" s="23">
         <f>G5</f>
         <v>0.22450000000000001</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="23">
         <f>H5</f>
         <v>0.12457</v>
       </c>
@@ -863,26 +845,25 @@
       <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="13">
+      <c r="F7" s="10">
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="10">
         <v>0.52549999999999997</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <v>0.13123000000000001</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="L7" s="26">
+      <c r="J7" s="19"/>
+      <c r="L7" s="23">
         <f>-F7</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="23">
         <f t="shared" ref="M7:N7" si="0">G7</f>
         <v>0.52549999999999997</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="23">
         <f t="shared" si="0"/>
         <v>0.13123000000000001</v>
       </c>
@@ -896,16 +877,14 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="29">
+      <c r="F8" s="20"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="26">
         <v>5.8056599999999996</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -918,26 +897,25 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13">
+      <c r="F9" s="10">
         <v>0.23599000000000001</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="10">
         <v>0.22470000000000001</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="10">
         <v>0.25557000000000002</v>
       </c>
-      <c r="J9" s="13"/>
-      <c r="L9" s="26">
+      <c r="J9" s="10"/>
+      <c r="L9" s="23">
         <f>-F10</f>
         <v>-3.4209999999999997E-2</v>
       </c>
-      <c r="M9" s="26">
+      <c r="M9" s="23">
         <f>G10</f>
         <v>0.182</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="23">
         <f>H10</f>
         <v>0.22907</v>
       </c>
@@ -951,26 +929,24 @@
       <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>3.4209999999999997E-2</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="10">
         <v>0.182</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="10">
         <v>0.22907</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="L10" s="26">
+      <c r="L10" s="23">
         <f>-F9</f>
         <v>-0.23599000000000001</v>
       </c>
-      <c r="M10" s="26">
+      <c r="M10" s="23">
         <f>G9</f>
         <v>0.22470000000000001</v>
       </c>
-      <c r="N10" s="26">
+      <c r="N10" s="23">
         <f>H9</f>
         <v>0.25557000000000002</v>
       </c>
@@ -984,25 +960,24 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>3.5490000000000001E-2</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="10">
         <v>0.49149999999999999</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="10">
         <v>0.32773000000000002</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="23">
         <f>-F11</f>
         <v>-3.5490000000000001E-2</v>
       </c>
-      <c r="M11" s="26">
+      <c r="M11" s="23">
         <f t="shared" ref="M11:N11" si="1">G11</f>
         <v>0.49149999999999999</v>
       </c>
-      <c r="N11" s="26">
+      <c r="N11" s="23">
         <f t="shared" si="1"/>
         <v>0.32773000000000002</v>
       </c>
@@ -1016,10 +991,9 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="29">
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="26">
         <v>5.2778799999999997</v>
       </c>
     </row>
@@ -1034,25 +1008,24 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="13">
+      <c r="F13" s="10">
         <v>0</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="10">
         <v>0.53918999999999995</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="10">
         <v>0.23322999999999999</v>
       </c>
-      <c r="L13" s="26">
+      <c r="L13" s="23">
         <f>-F13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="26">
+      <c r="M13" s="23">
         <f t="shared" ref="M13:N14" si="2">G13</f>
         <v>0.53918999999999995</v>
       </c>
-      <c r="N13" s="26">
+      <c r="N13" s="23">
         <f t="shared" si="2"/>
         <v>0.23322999999999999</v>
       </c>
@@ -1066,25 +1039,24 @@
       <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>0</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G14" s="19">
         <v>0.57499999999999996</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="10">
         <v>0.23322999999999999</v>
       </c>
-      <c r="L14" s="26">
+      <c r="L14" s="23">
         <f>-F14</f>
         <v>0</v>
       </c>
-      <c r="M14" s="26">
+      <c r="M14" s="23">
         <f t="shared" si="2"/>
         <v>0.57499999999999996</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="23">
         <f t="shared" si="2"/>
         <v>0.23322999999999999</v>
       </c>
@@ -1098,10 +1070,9 @@
       <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10">
         <v>1.0491900000000001</v>
       </c>
     </row>
@@ -1114,10 +1085,9 @@
       <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1130,10 +1100,9 @@
       <c r="D17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10">
         <v>0</v>
       </c>
     </row>
@@ -1143,18 +1112,17 @@
         <v>22</v>
       </c>
       <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="10" t="s">
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
         <v>0.15</v>
       </c>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1162,18 +1130,17 @@
         <v>24</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="10" t="s">
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10">
         <v>0.05</v>
       </c>
-      <c r="J19" s="10"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
@@ -1181,42 +1148,39 @@
         <v>26</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="10" t="s">
+      <c r="D20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10">
         <v>1.76</v>
       </c>
-      <c r="J20" s="10"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13">
+      <c r="F21" s="10">
         <v>1.7819999999999999E-2</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="10">
         <v>0.24518000000000001</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="10">
         <v>0.24814</v>
       </c>
-      <c r="J21" s="28" t="s">
+      <c r="J21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="20"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1227,18 +1191,16 @@
       <c r="D22" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <v>-5.1999999999999998E-2</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="10">
         <v>0.49859999999999999</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="10">
         <v>0.32373000000000002</v>
       </c>
-      <c r="J22" s="21"/>
-      <c r="L22" s="25" t="s">
+      <c r="L22" s="22" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1251,81 +1213,78 @@
       <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="29">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="26">
         <v>5.2778799999999997</v>
       </c>
-      <c r="L23" s="25" t="s">
+      <c r="L23" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="24">
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="21">
         <v>0.22999</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="21">
         <v>0.22700000000000001</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="21">
         <v>0.15606999999999999</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="24">
         <f>-F24</f>
         <v>-0.22999</v>
       </c>
-      <c r="M24" s="27">
+      <c r="M24" s="24">
         <f>G24</f>
         <v>0.22700000000000001</v>
       </c>
-      <c r="N24" s="27">
+      <c r="N24" s="24">
         <f>H24</f>
         <v>0.15606999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="24">
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="21">
         <v>5.9749999999999998E-2</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="21">
         <v>0.26723000000000002</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="21">
         <v>0.16078999999999999</v>
       </c>
-      <c r="L25" s="27">
+      <c r="L25" s="24">
         <f>-F25</f>
         <v>-5.9749999999999998E-2</v>
       </c>
-      <c r="M25" s="27">
+      <c r="M25" s="24">
         <f>G25</f>
         <v>0.26723000000000002</v>
       </c>
-      <c r="N25" s="27">
+      <c r="N25" s="24">
         <f>H25</f>
         <v>0.16078999999999999</v>
       </c>
@@ -1336,13 +1295,12 @@
         <v>33</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="10" t="s">
+      <c r="D26" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10">
         <v>3.6529410000000002</v>
       </c>
     </row>
@@ -1352,50 +1310,47 @@
         <v>34</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10">
         <v>4.3157700000000006</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="15" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="30">
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J28" s="17" t="s">
+      <c r="J28" s="15" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="30">
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="27">
         <v>-4.4999999999999998E-2</v>
       </c>
     </row>
@@ -1411,7 +1366,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="18" t="s">
+      <c r="H30" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1427,7 +1382,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1442,14 +1397,13 @@
       <c r="D32" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="13">
+      <c r="F32" s="10">
         <v>4.3310000000000001E-2</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="10">
         <v>0.47255999999999998</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="10">
         <v>0.30620000000000003</v>
       </c>
     </row>
@@ -1462,14 +1416,13 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="13">
+      <c r="F33" s="10">
         <v>2.9150000000000001E-3</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="10">
         <v>0.19966999999999999</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="10">
         <v>0.10389</v>
       </c>
     </row>
@@ -1482,10 +1435,9 @@
       <c r="D34" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="29">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="26">
         <v>5.8304799999999997E-2</v>
       </c>
     </row>
@@ -1500,14 +1452,13 @@
       <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="13">
+      <c r="F35" s="10">
         <v>3.499E-2</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="10">
         <v>0.192</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="10">
         <v>0.10306999999999999</v>
       </c>
     </row>
@@ -1520,14 +1471,13 @@
       <c r="D36" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="13">
+      <c r="F36" s="10">
         <v>5.8860000000000003E-2</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="10">
         <v>0.2467</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="10">
         <v>0.12791</v>
       </c>
     </row>
@@ -1540,31 +1490,25 @@
       <c r="D37" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="29">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="26">
         <v>0.22806699999999999</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E27 A24:B29">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="A30:A31">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="A24:B29">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"class"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="E24:E29">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Libraries/Vehicle/Linkage/DW_PushUA/sm_car_data_Linkage_DW_PushUA_noSteer.xlsx
+++ b/Libraries/Vehicle/Linkage/DW_PushUA/sm_car_data_Linkage_DW_PushUA_noSteer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt_srcR22a\Libraries\Vehicle\Linkage\DW_PushUA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF63A54-A56D-45C8-B401-F83FBCC9BF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03019321-DCAC-4594-B420-B85197880AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="868" xr2:uid="{ACF2BADA-AF40-4151-8377-863ED7ABEE94}"/>
   </bookViews>
   <sheets>
     <sheet name="DWPUAnoSteer_FSAE_Achilles_r" sheetId="10" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,7 +1361,7 @@
       <c r="B30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="9"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
       <c r="F30" s="5"/>
@@ -1377,7 +1377,7 @@
       <c r="B31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="9"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
       <c r="F31" s="5"/>
